--- a/Dissertation/datalol.xlsx
+++ b/Dissertation/datalol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniDocs\year 3\Final Project\s5226058_FinalProject\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5EE33C-2975-4952-AD88-C7FE16B8C56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F73936D-382A-42A2-9919-0DF23A0B4FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2C191201-A765-4618-95EA-49F4979673E3}"/>
+    <workbookView xWindow="-16320" yWindow="-4185" windowWidth="16440" windowHeight="28440" xr2:uid="{2C191201-A765-4618-95EA-49F4979673E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Resolution</a:t>
+                  <a:t> Resolution (squared verticies)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -862,7 +862,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Base Resolution</a:t>
+                  <a:t>Base Resolution (squared verticies)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1301,7 +1301,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Radius</a:t>
+                  <a:t>Radius (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1807,7 +1807,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (square verticies)</a:t>
+                  <a:t> (pixels squared * 6)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -4726,8 +4726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5F448E-8028-473F-B335-7A3831814AD3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
